--- a/R/results.xlsx
+++ b/R/results.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioana-Roxana\Desktop\Proiect_licenta\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A10DFAE-FD77-4A9A-96A2-82B153AA3AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D8DE6-5ED0-4452-B61F-C0D0CD6B9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="svm" sheetId="5" r:id="rId1"/>
+    <sheet name="lightGBM" sheetId="7" r:id="rId1"/>
     <sheet name="svm_k_fold" sheetId="6" r:id="rId2"/>
-    <sheet name="random_forest" sheetId="3" r:id="rId3"/>
-    <sheet name="random_forest_k_fold" sheetId="4" r:id="rId4"/>
-    <sheet name="gradient_boosting" sheetId="1" r:id="rId5"/>
-    <sheet name="gradient_boosting_k_fold" sheetId="2" r:id="rId6"/>
+    <sheet name="gradient_boosting_k_fold" sheetId="2" r:id="rId3"/>
+    <sheet name="gradient_boosting" sheetId="1" r:id="rId4"/>
+    <sheet name="random_forest" sheetId="3" r:id="rId5"/>
+    <sheet name="random_forest_k_fold" sheetId="4" r:id="rId6"/>
+    <sheet name="svm" sheetId="5" r:id="rId7"/>
+    <sheet name="lightGBM_k_fold" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="45">
   <si>
     <t>Configuration</t>
   </si>
@@ -1016,16 +1018,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7868C-A761-4D2E-AB2B-56B177359287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BC7C14-153A-4763-BC80-540FBE3A2565}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.21875" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,189 +1049,189 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3">
-        <v>0.80952380952380898</v>
+        <v>0.96276874672260004</v>
       </c>
       <c r="C2" s="3">
-        <v>0.88235294117647001</v>
+        <v>0.95895953757225405</v>
       </c>
       <c r="D2" s="3">
-        <v>0.75</v>
+        <v>0.96810422282120401</v>
       </c>
       <c r="E2" s="3">
-        <v>0.76666666666666605</v>
+        <v>0.96212824934373198</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3">
-        <v>0.80952380952380898</v>
+        <v>0.85631882538017801</v>
       </c>
       <c r="C3" s="3">
-        <v>0.88235294117647001</v>
+        <v>0.87811317760406205</v>
       </c>
       <c r="D3" s="3">
-        <v>0.75</v>
+        <v>0.83431441109308102</v>
       </c>
       <c r="E3" s="3">
-        <v>0.76666666666666605</v>
+        <v>0.84492069710568096</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
-        <v>0.80952380952380898</v>
+        <v>0.85631882538017801</v>
       </c>
       <c r="C4" s="3">
-        <v>0.81666666666666599</v>
+        <v>0.87811317760406205</v>
       </c>
       <c r="D4" s="3">
-        <v>0.77403846153846101</v>
+        <v>0.83431441109308102</v>
       </c>
       <c r="E4" s="3">
-        <v>0.78571428571428503</v>
+        <v>0.84492069710568096</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5">
-        <v>0.80952380952380898</v>
+        <v>0.796539066596748</v>
       </c>
       <c r="C5">
-        <v>0.88235294117647001</v>
+        <v>0.87075283144570204</v>
       </c>
       <c r="D5">
-        <v>0.75</v>
+        <v>0.75566750629722901</v>
       </c>
       <c r="E5">
-        <v>0.76666666666666605</v>
+        <v>0.76411757204794695</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>0.80952380952380898</v>
+        <v>0.78710015731515404</v>
       </c>
       <c r="C6">
-        <v>0.88235294117647001</v>
+        <v>0.83153959662580301</v>
       </c>
       <c r="D6">
-        <v>0.75</v>
+        <v>0.75119098540038598</v>
       </c>
       <c r="E6">
-        <v>0.76666666666666605</v>
+        <v>0.75921178013141499</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B7">
-        <v>0.79129522810697395</v>
+        <v>0.72102779234399506</v>
       </c>
       <c r="C7">
-        <v>0.80779092027895505</v>
+        <v>0.74490153870684805</v>
       </c>
       <c r="D7">
-        <v>0.76489212670953</v>
+        <v>0.743318600193273</v>
       </c>
       <c r="E7">
-        <v>0.77273309809726998</v>
+        <v>0.72100562100562104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.77608809648662802</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C8">
-        <v>0.861363636363636</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>0.73110831234256901</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="E8">
-        <v>0.73563187044195799</v>
+        <v>0.67857142857142805</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C9">
-        <v>0.75</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D9">
-        <v>0.73557692307692302</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E9">
-        <v>0.74074074074074003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C10">
-        <v>0.86111111111111105</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>0.6875</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="E10">
-        <v>0.69208211143694998</v>
+        <v>0.67857142857142805</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C11">
-        <v>0.75</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D11">
-        <v>0.73557692307692302</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E11">
-        <v>0.74074074074074003</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C12">
-        <v>0.86111111111111105</v>
+        <v>0.7</v>
       </c>
       <c r="D12">
-        <v>0.6875</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="E12">
-        <v>0.69208211143694998</v>
+        <v>0.67857142857142805</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1237,16 +1239,16 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C13">
-        <v>0.86111111111111105</v>
+        <v>0.7</v>
       </c>
       <c r="D13">
-        <v>0.6875</v>
+        <v>0.67307692307692302</v>
       </c>
       <c r="E13">
-        <v>0.69208211143694998</v>
+        <v>0.67857142857142805</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1254,101 +1256,101 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.76190476190476097</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C14">
-        <v>0.86111111111111105</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D14">
-        <v>0.6875</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E14">
-        <v>0.69208211143694998</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0.71428571428571397</v>
       </c>
       <c r="C15">
-        <v>0.84210526315789402</v>
+        <v>0.69711538461538403</v>
       </c>
       <c r="D15">
-        <v>0.625</v>
+        <v>0.69711538461538403</v>
       </c>
       <c r="E15">
-        <v>0.60624999999999996</v>
+        <v>0.69711538461538403</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.71428571428571397</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C16">
-        <v>0.72794117647058798</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="D16">
-        <v>0.64903846153846101</v>
+        <v>0.58653846153846101</v>
       </c>
       <c r="E16">
-        <v>0.65</v>
+        <v>0.56891495601173003</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>0.71428571428571397</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C17">
-        <v>0.72794117647058798</v>
+        <v>0.64285714285714202</v>
       </c>
       <c r="D17">
-        <v>0.64903846153846101</v>
+        <v>0.63461538461538403</v>
       </c>
       <c r="E17">
-        <v>0.65</v>
+        <v>0.63703703703703696</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B18">
-        <v>0.71428571428571397</v>
+        <v>0.63974829575249004</v>
       </c>
       <c r="C18">
-        <v>0.84210526315789402</v>
+        <v>0.76806212018906095</v>
       </c>
       <c r="D18">
-        <v>0.625</v>
+        <v>0.69137466307277595</v>
       </c>
       <c r="E18">
-        <v>0.60624999999999996</v>
+        <v>0.62581410791937098</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>0.71428571428571397</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C19">
-        <v>0.72794117647058798</v>
+        <v>0.57352941176470495</v>
       </c>
       <c r="D19">
-        <v>0.64903846153846101</v>
+        <v>0.54807692307692302</v>
       </c>
       <c r="E19">
-        <v>0.65</v>
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1356,55 +1358,55 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C20">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D20">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C21">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D21">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C22">
-        <v>0.66666666666666596</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D22">
-        <v>0.58653846153846101</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
-        <v>0.56891495601173003</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>0.61904761904761896</v>
@@ -1421,7 +1423,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
         <v>0.61904761904761896</v>
@@ -1438,24 +1440,24 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>0.61904761904761896</v>
       </c>
       <c r="C25">
-        <v>0.80952380952380898</v>
+        <v>0.57352941176470495</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.54807692307692302</v>
       </c>
       <c r="E25">
-        <v>0.38235294117647001</v>
+        <v>0.53333333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0.61904761904761896</v>
@@ -1472,104 +1474,104 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>0.61772417409543701</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C27">
-        <v>0.64599093078424896</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D27">
-        <v>0.64164352590520501</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
-        <v>0.617237491482024</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>0.59045621394861003</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C28">
-        <v>0.63946177477086596</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D28">
-        <v>0.62441978359710404</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>0.58643686108230197</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>0.58363922391190304</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C29">
-        <v>0.60082174462705396</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D29">
-        <v>0.60071153598077198</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
-        <v>0.58363819349729396</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>0.57142857142857095</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D30">
-        <v>0.46153846153846101</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
-        <v>0.36363636363636298</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>0.57142857142857095</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C31">
-        <v>0.60576923076922995</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D31">
-        <v>0.60576923076922995</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>0.57142857142857095</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>0.57142857142857095</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C32">
-        <v>0.60576923076922995</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D32">
-        <v>0.60576923076922995</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
-        <v>0.57142857142857095</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1577,152 +1579,152 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.57142857142857095</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C33">
-        <v>0.3</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D33">
-        <v>0.46153846153846101</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>0.36363636363636298</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>0.53487152595700005</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C34">
-        <v>0.67135120826082595</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D34">
-        <v>0.59448842509295896</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.50199187469398998</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>0.52380952380952295</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C35">
-        <v>0.41911764705882298</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D35">
-        <v>0.44711538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
-        <v>0.41666666666666602</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>0.48190875721027698</v>
+        <v>0.57682223387519604</v>
       </c>
       <c r="C36">
-        <v>0.62547844538495301</v>
+        <v>0.74797001873828795</v>
       </c>
       <c r="D36">
-        <v>0.549115558965376</v>
+        <v>0.63746630727762799</v>
       </c>
       <c r="E36">
-        <v>0.42686185422502099</v>
+        <v>0.54716882864671301</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>0.476190476190476</v>
+        <v>0.57157839538542199</v>
       </c>
       <c r="C37">
-        <v>0.27777777777777701</v>
+        <v>0.61145633394349397</v>
       </c>
       <c r="D37">
-        <v>0.38461538461538403</v>
+        <v>0.60211073165543005</v>
       </c>
       <c r="E37">
-        <v>0.32258064516128998</v>
+        <v>0.56869213714315403</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>0.476190476190476</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C38">
-        <v>0.27777777777777701</v>
+        <v>0.51249999999999996</v>
       </c>
       <c r="D38">
-        <v>0.38461538461538403</v>
+        <v>0.50961538461538403</v>
       </c>
       <c r="E38">
-        <v>0.32258064516128998</v>
+        <v>0.49867374005304999</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>0.47561615102254801</v>
+        <v>0.52380952380952295</v>
       </c>
       <c r="C39">
-        <v>0.52661959252868296</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="D39">
-        <v>0.51990048906782904</v>
+        <v>0.47115384615384598</v>
       </c>
       <c r="E39">
-        <v>0.458504461446199</v>
+        <v>0.46428571428571402</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>0.45673833245936002</v>
+        <v>0.52380952380952295</v>
       </c>
       <c r="C40">
-        <v>0.716939890710382</v>
+        <v>0.46666666666666601</v>
       </c>
       <c r="D40">
-        <v>0.53459119496855301</v>
+        <v>0.47115384615384598</v>
       </c>
       <c r="E40">
-        <v>0.367297345767575</v>
+        <v>0.46428571428571402</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.40062926061877202</v>
+        <v>0.49082328264289399</v>
       </c>
       <c r="C41">
-        <v>0.245186136071887</v>
+        <v>0.54225083196366597</v>
       </c>
       <c r="D41">
-        <v>0.343216531895777</v>
+        <v>0.53292834171832304</v>
       </c>
       <c r="E41">
-        <v>0.28603519281168099</v>
+        <v>0.47700286029087502</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +1743,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2450,11 +2452,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.91428571428571404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.81092436974789905</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.76428571428571401</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.77229601518026503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="C5">
+        <v>0.81092436974789905</v>
+      </c>
+      <c r="D5">
+        <v>0.76428571428571401</v>
+      </c>
+      <c r="E5">
+        <v>0.77229601518026503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>0.74828857293312201</v>
+      </c>
+      <c r="C6">
+        <v>0.756119743976845</v>
+      </c>
+      <c r="D6">
+        <v>0.76027581464384397</v>
+      </c>
+      <c r="E6">
+        <v>0.74799332366456595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>0.71037388098999399</v>
+      </c>
+      <c r="C7">
+        <v>0.83252131546894004</v>
+      </c>
+      <c r="D7">
+        <v>0.65923172242874795</v>
+      </c>
+      <c r="E7">
+        <v>0.64095613026714504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C8">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D8">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E8">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C9">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D9">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E9">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C10">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D10">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E10">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C11">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D11">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E11">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C12">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D12">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E12">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C13">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D13">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E13">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.69285714285714195</v>
+      </c>
+      <c r="E14">
+        <v>0.69509981851179603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C15">
+        <v>0.71008403361344496</v>
+      </c>
+      <c r="D15">
+        <v>0.67857142857142805</v>
+      </c>
+      <c r="E15">
+        <v>0.68121442125237097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>0.70616113744075804</v>
+      </c>
+      <c r="C16">
+        <v>0.83090909090909004</v>
+      </c>
+      <c r="D16">
+        <v>0.65427509293680297</v>
+      </c>
+      <c r="E16">
+        <v>0.63404490749950204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>0.70616113744075804</v>
+      </c>
+      <c r="C17">
+        <v>0.83090909090909004</v>
+      </c>
+      <c r="D17">
+        <v>0.65427509293680297</v>
+      </c>
+      <c r="E17">
+        <v>0.63404490749950204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>0.70616113744075804</v>
+      </c>
+      <c r="C18">
+        <v>0.83090909090909004</v>
+      </c>
+      <c r="D18">
+        <v>0.65427509293680297</v>
+      </c>
+      <c r="E18">
+        <v>0.63404490749950204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C19">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="D19">
+        <v>0.628571428571428</v>
+      </c>
+      <c r="E19">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>0.62822538177988396</v>
+      </c>
+      <c r="C20">
+        <v>0.63033466533466498</v>
+      </c>
+      <c r="D20">
+        <v>0.63324175824175799</v>
+      </c>
+      <c r="E20">
+        <v>0.62680876222542803</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.625</v>
+      </c>
+      <c r="C21">
+        <v>0.80434782608695599</v>
+      </c>
+      <c r="D21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.46928746928746901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0.625</v>
+      </c>
+      <c r="C22">
+        <v>0.80434782608695599</v>
+      </c>
+      <c r="D22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.46928746928746901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.625</v>
+      </c>
+      <c r="C23">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D23">
+        <v>0.56428571428571395</v>
+      </c>
+      <c r="E23">
+        <v>0.52527472527472496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>0.625</v>
+      </c>
+      <c r="C24">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D24">
+        <v>0.56428571428571395</v>
+      </c>
+      <c r="E24">
+        <v>0.52527472527472496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0.625</v>
+      </c>
+      <c r="C25">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D25">
+        <v>0.56428571428571395</v>
+      </c>
+      <c r="E25">
+        <v>0.52527472527472496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C26">
+        <v>0.5625</v>
+      </c>
+      <c r="D26">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="E26">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C27">
+        <v>0.625</v>
+      </c>
+      <c r="D27">
+        <v>0.61428571428571399</v>
+      </c>
+      <c r="E27">
+        <v>0.58041958041957997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C28">
+        <v>0.5625</v>
+      </c>
+      <c r="D28">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="E28">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0.57030015797788303</v>
+      </c>
+      <c r="C29">
+        <v>0.64460970627011704</v>
+      </c>
+      <c r="D29">
+        <v>0.61052670996908898</v>
+      </c>
+      <c r="E29">
+        <v>0.55649838464832002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30">
+        <v>0.56766719325961001</v>
+      </c>
+      <c r="C30">
+        <v>0.62172699307522294</v>
+      </c>
+      <c r="D30">
+        <v>0.60193090676362004</v>
+      </c>
+      <c r="E30">
+        <v>0.559278055449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C31">
+        <v>0.282608695652173</v>
+      </c>
+      <c r="D31">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="E31">
+        <v>0.35135135135135098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C32">
+        <v>0.282608695652173</v>
+      </c>
+      <c r="D32">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="E32">
+        <v>0.35135135135135098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C33">
+        <v>0.59243697478991597</v>
+      </c>
+      <c r="D33">
+        <v>0.57857142857142796</v>
+      </c>
+      <c r="E33">
+        <v>0.53439153439153397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>0.511848341232227</v>
+      </c>
+      <c r="C34">
+        <v>0.555753791257805</v>
+      </c>
+      <c r="D34">
+        <v>0.54595775971240601</v>
+      </c>
+      <c r="E34">
+        <v>0.50131429664095795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C35">
+        <v>0.465034965034965</v>
+      </c>
+      <c r="D35">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="E35">
+        <v>0.45739130434782599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C36">
+        <v>0.465034965034965</v>
+      </c>
+      <c r="D36">
+        <v>0.46428571428571402</v>
+      </c>
+      <c r="E36">
+        <v>0.45739130434782599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.43127962085308003</v>
+      </c>
+      <c r="C37">
+        <v>0.46429981898963302</v>
+      </c>
+      <c r="D37">
+        <v>0.47784325340087402</v>
+      </c>
+      <c r="E37">
+        <v>0.39696417986281601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C38">
+        <v>0.45</v>
+      </c>
+      <c r="D38">
+        <v>0.47142857142857097</v>
+      </c>
+      <c r="E38">
+        <v>0.37777777777777699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C39">
+        <v>0.45</v>
+      </c>
+      <c r="D39">
+        <v>0.47142857142857097</v>
+      </c>
+      <c r="E39">
+        <v>0.37777777777777699</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="C40">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="D40">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="E40">
+        <v>0.41666666666666602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>0.375</v>
+      </c>
+      <c r="C41">
+        <v>0.384210526315789</v>
+      </c>
+      <c r="D41">
+        <v>0.42142857142857099</v>
+      </c>
+      <c r="E41">
+        <v>0.34664246823956402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="69.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.88830624016780202</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.91968325791855199</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.865869017632241</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.87888001789108805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.88830624016780202</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.91968325791855199</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.865869017632241</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.87888001789108805</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.88830624016780202</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.91968325791855199</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.865869017632241</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.87888001789108805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>0.81699003670686898</v>
+      </c>
+      <c r="C5">
+        <v>0.84733158355205596</v>
+      </c>
+      <c r="D5">
+        <v>0.84321653189577706</v>
+      </c>
+      <c r="E5">
+        <v>0.81694473408367796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="C6">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="D6">
+        <v>0.77403846153846101</v>
+      </c>
+      <c r="E6">
+        <v>0.78571428571428503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="C7">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="D7">
+        <v>0.77403846153846101</v>
+      </c>
+      <c r="E7">
+        <v>0.78571428571428503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="C8">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="D8">
+        <v>0.77403846153846101</v>
+      </c>
+      <c r="E8">
+        <v>0.78571428571428503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="C9">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="D9">
+        <v>0.77403846153846101</v>
+      </c>
+      <c r="E9">
+        <v>0.78571428571428503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>0.76874672260094301</v>
+      </c>
+      <c r="C10">
+        <v>0.76258038334269795</v>
+      </c>
+      <c r="D10">
+        <v>0.76651141422302405</v>
+      </c>
+      <c r="E10">
+        <v>0.76401620877340104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>0.76822233875196599</v>
+      </c>
+      <c r="C11">
+        <v>0.76174821918666802</v>
+      </c>
+      <c r="D11">
+        <v>0.76461828493576001</v>
+      </c>
+      <c r="E11">
+        <v>0.76292729080975996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>0.76769795490298898</v>
+      </c>
+      <c r="C12">
+        <v>0.76123075614717794</v>
+      </c>
+      <c r="D12">
+        <v>0.76416904863746704</v>
+      </c>
+      <c r="E12">
+        <v>0.76242894741356304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>0.74882013633980005</v>
+      </c>
+      <c r="C13">
+        <v>0.742503508498362</v>
+      </c>
+      <c r="D13">
+        <v>0.74637216228632997</v>
+      </c>
+      <c r="E13">
+        <v>0.74383611622670598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>0.74462506554798102</v>
+      </c>
+      <c r="C14">
+        <v>0.73853034042647803</v>
+      </c>
+      <c r="D14">
+        <v>0.74277827189998602</v>
+      </c>
+      <c r="E14">
+        <v>0.73986361669259904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0.71683272155217603</v>
+      </c>
+      <c r="C15">
+        <v>0.71445030893148898</v>
+      </c>
+      <c r="D15">
+        <v>0.72041264107943404</v>
+      </c>
+      <c r="E15">
+        <v>0.71402371833038503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="E16">
+        <v>0.67857142857142805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.67307692307692302</v>
+      </c>
+      <c r="E17">
+        <v>0.67857142857142805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C18">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D18">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E18">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C19">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D19">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E19">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C20">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D20">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E20">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C21">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D21">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E21">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C22">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D22">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E22">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C23">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D23">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E23">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C24">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D24">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E24">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C25">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D25">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E25">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C26">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D26">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E26">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C27">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D27">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E27">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C28">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D28">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E28">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C29">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D29">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E29">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C30">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="D30">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="E30">
+        <v>0.63703703703703696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C31">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C32">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C33">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C34">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C35">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C36">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C37">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="C38">
+        <v>0.80952380952380898</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>0.38235294117647001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C39">
+        <v>0.3</v>
+      </c>
+      <c r="D39">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="E39">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C40">
+        <v>0.3</v>
+      </c>
+      <c r="D40">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="E40">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C41">
+        <v>0.3</v>
+      </c>
+      <c r="D41">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="E41">
+        <v>0.36363636363636298</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E80">
+    <sortCondition descending="1" ref="B1:B80"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3164,7 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
@@ -3879,17 +5314,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA7868C-A761-4D2E-AB2B-56B177359287}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.5546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="62.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3911,313 +5346,313 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>0.88830624016780202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="C2" s="3">
-        <v>0.91968325791855199</v>
+        <v>0.88235294117647001</v>
       </c>
       <c r="D2" s="3">
-        <v>0.865869017632241</v>
+        <v>0.75</v>
       </c>
       <c r="E2" s="3">
-        <v>0.87888001789108805</v>
+        <v>0.76666666666666605</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
-        <v>0.88830624016780202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="C3" s="3">
-        <v>0.91968325791855199</v>
+        <v>0.88235294117647001</v>
       </c>
       <c r="D3" s="3">
-        <v>0.865869017632241</v>
+        <v>0.75</v>
       </c>
       <c r="E3" s="3">
-        <v>0.87888001789108805</v>
+        <v>0.76666666666666605</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
-        <v>0.88830624016780202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="C4" s="3">
-        <v>0.91968325791855199</v>
+        <v>0.81666666666666599</v>
       </c>
       <c r="D4" s="3">
-        <v>0.865869017632241</v>
+        <v>0.77403846153846101</v>
       </c>
       <c r="E4" s="3">
-        <v>0.87888001789108805</v>
+        <v>0.78571428571428503</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>0.81699003670686898</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="C5">
-        <v>0.84733158355205596</v>
+        <v>0.88235294117647001</v>
       </c>
       <c r="D5">
-        <v>0.84321653189577706</v>
+        <v>0.75</v>
       </c>
       <c r="E5">
-        <v>0.81694473408367796</v>
+        <v>0.76666666666666605</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>0.80952380952380898</v>
       </c>
       <c r="C6">
-        <v>0.81666666666666599</v>
+        <v>0.88235294117647001</v>
       </c>
       <c r="D6">
-        <v>0.77403846153846101</v>
+        <v>0.75</v>
       </c>
       <c r="E6">
-        <v>0.78571428571428503</v>
+        <v>0.76666666666666605</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>0.80952380952380898</v>
+        <v>0.79129522810697395</v>
       </c>
       <c r="C7">
-        <v>0.81666666666666599</v>
+        <v>0.80779092027895505</v>
       </c>
       <c r="D7">
-        <v>0.77403846153846101</v>
+        <v>0.76489212670953</v>
       </c>
       <c r="E7">
-        <v>0.78571428571428503</v>
+        <v>0.77273309809726998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B8">
-        <v>0.80952380952380898</v>
+        <v>0.77608809648662802</v>
       </c>
       <c r="C8">
-        <v>0.81666666666666599</v>
+        <v>0.861363636363636</v>
       </c>
       <c r="D8">
-        <v>0.77403846153846101</v>
+        <v>0.73110831234256901</v>
       </c>
       <c r="E8">
-        <v>0.78571428571428503</v>
+        <v>0.73563187044195799</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.80952380952380898</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C9">
-        <v>0.81666666666666599</v>
+        <v>0.75</v>
       </c>
       <c r="D9">
-        <v>0.77403846153846101</v>
+        <v>0.73557692307692302</v>
       </c>
       <c r="E9">
-        <v>0.78571428571428503</v>
+        <v>0.74074074074074003</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.76874672260094301</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C10">
-        <v>0.76258038334269795</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="D10">
-        <v>0.76651141422302405</v>
+        <v>0.6875</v>
       </c>
       <c r="E10">
-        <v>0.76401620877340104</v>
+        <v>0.69208211143694998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>0.76822233875196599</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C11">
-        <v>0.76174821918666802</v>
+        <v>0.75</v>
       </c>
       <c r="D11">
-        <v>0.76461828493576001</v>
+        <v>0.73557692307692302</v>
       </c>
       <c r="E11">
-        <v>0.76292729080975996</v>
+        <v>0.74074074074074003</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>0.76769795490298898</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C12">
-        <v>0.76123075614717794</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="D12">
-        <v>0.76416904863746704</v>
+        <v>0.6875</v>
       </c>
       <c r="E12">
-        <v>0.76242894741356304</v>
+        <v>0.69208211143694998</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0.74882013633980005</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C13">
-        <v>0.742503508498362</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="D13">
-        <v>0.74637216228632997</v>
+        <v>0.6875</v>
       </c>
       <c r="E13">
-        <v>0.74383611622670598</v>
+        <v>0.69208211143694998</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>0.74462506554798102</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="C14">
-        <v>0.73853034042647803</v>
+        <v>0.86111111111111105</v>
       </c>
       <c r="D14">
-        <v>0.74277827189998602</v>
+        <v>0.6875</v>
       </c>
       <c r="E14">
-        <v>0.73986361669259904</v>
+        <v>0.69208211143694998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>0.71683272155217603</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C15">
-        <v>0.71445030893148898</v>
+        <v>0.84210526315789402</v>
       </c>
       <c r="D15">
-        <v>0.72041264107943404</v>
+        <v>0.625</v>
       </c>
       <c r="E15">
-        <v>0.71402371833038503</v>
+        <v>0.60624999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>0.71428571428571397</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D16">
-        <v>0.67307692307692302</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E16">
-        <v>0.67857142857142805</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.71428571428571397</v>
       </c>
       <c r="C17">
-        <v>0.7</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D17">
-        <v>0.67307692307692302</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E17">
-        <v>0.67857142857142805</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.66666666666666596</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C18">
-        <v>0.64285714285714202</v>
+        <v>0.84210526315789402</v>
       </c>
       <c r="D18">
-        <v>0.63461538461538403</v>
+        <v>0.625</v>
       </c>
       <c r="E18">
-        <v>0.63703703703703696</v>
+        <v>0.60624999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.66666666666666596</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="C19">
-        <v>0.64285714285714202</v>
+        <v>0.72794117647058798</v>
       </c>
       <c r="D19">
-        <v>0.63461538461538403</v>
+        <v>0.64903846153846101</v>
       </c>
       <c r="E19">
-        <v>0.63703703703703696</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0.66666666666666596</v>
@@ -4234,7 +5669,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0.66666666666666596</v>
@@ -4251,257 +5686,257 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0.66666666666666596</v>
       </c>
       <c r="C22">
-        <v>0.64285714285714202</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="D22">
-        <v>0.63461538461538403</v>
+        <v>0.58653846153846101</v>
       </c>
       <c r="E22">
-        <v>0.63703703703703696</v>
+        <v>0.56891495601173003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C23">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D23">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C24">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D24">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C25">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D25">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.66666666666666596</v>
+        <v>0.61904761904761896</v>
       </c>
       <c r="C26">
-        <v>0.64285714285714202</v>
+        <v>0.80952380952380898</v>
       </c>
       <c r="D26">
-        <v>0.63461538461538403</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>0.63703703703703696</v>
+        <v>0.38235294117647001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B27">
-        <v>0.66666666666666596</v>
+        <v>0.61772417409543701</v>
       </c>
       <c r="C27">
-        <v>0.64285714285714202</v>
+        <v>0.64599093078424896</v>
       </c>
       <c r="D27">
-        <v>0.63461538461538403</v>
+        <v>0.64164352590520501</v>
       </c>
       <c r="E27">
-        <v>0.63703703703703696</v>
+        <v>0.617237491482024</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.66666666666666596</v>
+        <v>0.59045621394861003</v>
       </c>
       <c r="C28">
-        <v>0.64285714285714202</v>
+        <v>0.63946177477086596</v>
       </c>
       <c r="D28">
-        <v>0.63461538461538403</v>
+        <v>0.62441978359710404</v>
       </c>
       <c r="E28">
-        <v>0.63703703703703696</v>
+        <v>0.58643686108230197</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>0.66666666666666596</v>
+        <v>0.58363922391190304</v>
       </c>
       <c r="C29">
-        <v>0.64285714285714202</v>
+        <v>0.60082174462705396</v>
       </c>
       <c r="D29">
-        <v>0.63461538461538403</v>
+        <v>0.60071153598077198</v>
       </c>
       <c r="E29">
-        <v>0.63703703703703696</v>
+        <v>0.58363819349729396</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>0.66666666666666596</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C30">
-        <v>0.64285714285714202</v>
+        <v>0.3</v>
       </c>
       <c r="D30">
-        <v>0.63461538461538403</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="E30">
-        <v>0.63703703703703696</v>
+        <v>0.36363636363636298</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>0.61904761904761896</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C31">
-        <v>0.80952380952380898</v>
+        <v>0.60576923076922995</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0.60576923076922995</v>
       </c>
       <c r="E31">
-        <v>0.38235294117647001</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>0.61904761904761896</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C32">
-        <v>0.80952380952380898</v>
+        <v>0.60576923076922995</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0.60576923076922995</v>
       </c>
       <c r="E32">
-        <v>0.38235294117647001</v>
+        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>0.61904761904761896</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C33">
-        <v>0.80952380952380898</v>
+        <v>0.3</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="E33">
-        <v>0.38235294117647001</v>
+        <v>0.36363636363636298</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.61904761904761896</v>
+        <v>0.53487152595700005</v>
       </c>
       <c r="C34">
-        <v>0.80952380952380898</v>
+        <v>0.67135120826082595</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.59448842509295896</v>
       </c>
       <c r="E34">
-        <v>0.38235294117647001</v>
+        <v>0.50199187469398998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>0.61904761904761896</v>
+        <v>0.52380952380952295</v>
       </c>
       <c r="C35">
-        <v>0.80952380952380898</v>
+        <v>0.41911764705882298</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.44711538461538403</v>
       </c>
       <c r="E35">
-        <v>0.38235294117647001</v>
+        <v>0.41666666666666602</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.61904761904761896</v>
+        <v>0.48190875721027698</v>
       </c>
       <c r="C36">
-        <v>0.80952380952380898</v>
+        <v>0.62547844538495301</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.549115558965376</v>
       </c>
       <c r="E36">
-        <v>0.38235294117647001</v>
+        <v>0.42686185422502099</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4509,105 +5944,102 @@
         <v>30</v>
       </c>
       <c r="B37">
-        <v>0.61904761904761896</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="C37">
-        <v>0.80952380952380898</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="E37">
-        <v>0.38235294117647001</v>
+        <v>0.32258064516128998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38">
-        <v>0.61904761904761896</v>
+        <v>0.476190476190476</v>
       </c>
       <c r="C38">
-        <v>0.80952380952380898</v>
+        <v>0.27777777777777701</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.38461538461538403</v>
       </c>
       <c r="E38">
-        <v>0.38235294117647001</v>
+        <v>0.32258064516128998</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.57142857142857095</v>
+        <v>0.47561615102254801</v>
       </c>
       <c r="C39">
-        <v>0.3</v>
+        <v>0.52661959252868296</v>
       </c>
       <c r="D39">
-        <v>0.46153846153846101</v>
+        <v>0.51990048906782904</v>
       </c>
       <c r="E39">
-        <v>0.36363636363636298</v>
+        <v>0.458504461446199</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>0.57142857142857095</v>
+        <v>0.45673833245936002</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.716939890710382</v>
       </c>
       <c r="D40">
-        <v>0.46153846153846101</v>
+        <v>0.53459119496855301</v>
       </c>
       <c r="E40">
-        <v>0.36363636363636298</v>
+        <v>0.367297345767575</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>0.57142857142857095</v>
+        <v>0.40062926061877202</v>
       </c>
       <c r="C41">
-        <v>0.3</v>
+        <v>0.245186136071887</v>
       </c>
       <c r="D41">
-        <v>0.46153846153846101</v>
+        <v>0.343216531895777</v>
       </c>
       <c r="E41">
-        <v>0.36363636363636298</v>
+        <v>0.28603519281168099</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E80">
-    <sortCondition descending="1" ref="B1:B80"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A408285-BD81-4FF6-88EC-2CCE0B225B49}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="52.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -4629,682 +6061,682 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3">
-        <v>0.91666666666666596</v>
+        <v>0.79568193799999998</v>
       </c>
       <c r="C2" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.86891891899999996</v>
       </c>
       <c r="D2" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.75960346999999995</v>
       </c>
       <c r="E2" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.76633414399999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3">
-        <v>0.91666666666666596</v>
+        <v>0.70352817300000003</v>
       </c>
       <c r="C3" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.69635983999999995</v>
       </c>
       <c r="D3" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.69370514900000002</v>
       </c>
       <c r="E3" s="3">
-        <v>0.91428571428571404</v>
+        <v>0.69475180299999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3">
-        <v>0.79166666666666596</v>
+        <v>0.65244865699999999</v>
       </c>
       <c r="C4" s="3">
-        <v>0.81092436974789905</v>
+        <v>0.77505112499999995</v>
       </c>
       <c r="D4" s="3">
-        <v>0.76428571428571401</v>
+        <v>0.69780219799999998</v>
       </c>
       <c r="E4" s="3">
-        <v>0.77229601518026503</v>
+        <v>0.63834583300000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B5">
-        <v>0.79166666666666596</v>
+        <v>0.64402316999999998</v>
       </c>
       <c r="C5">
-        <v>0.81092436974789905</v>
+        <v>0.77208361400000003</v>
       </c>
       <c r="D5">
-        <v>0.76428571428571401</v>
+        <v>0.69047619000000005</v>
       </c>
       <c r="E5">
-        <v>0.77229601518026503</v>
+        <v>0.62826381600000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6">
-        <v>0.74828857293312201</v>
+        <v>0.64244339100000003</v>
       </c>
       <c r="C6">
-        <v>0.756119743976845</v>
+        <v>0.77153432</v>
       </c>
       <c r="D6">
-        <v>0.76027581464384397</v>
+        <v>0.68910256400000003</v>
       </c>
       <c r="E6">
-        <v>0.74799332366456595</v>
+        <v>0.62635929400000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>0.71037388098999399</v>
+        <v>0.628225382</v>
       </c>
       <c r="C7">
-        <v>0.83252131546894004</v>
+        <v>0.63033466500000002</v>
       </c>
       <c r="D7">
-        <v>0.65923172242874795</v>
+        <v>0.63324175800000004</v>
       </c>
       <c r="E7">
-        <v>0.64095613026714504</v>
+        <v>0.62680876200000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C8">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D8">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C9">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D9">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C10">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D10">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C11">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D11">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C12">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D12">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C13">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D13">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D14">
-        <v>0.69285714285714195</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.69509981851179603</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>0.70833333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C15">
-        <v>0.71008403361344496</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D15">
-        <v>0.67857142857142805</v>
+        <v>0.5</v>
       </c>
       <c r="E15">
-        <v>0.68121442125237097</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>0.70616113744075804</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C16">
-        <v>0.83090909090909004</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D16">
-        <v>0.65427509293680297</v>
+        <v>0.5</v>
       </c>
       <c r="E16">
-        <v>0.63404490749950204</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>0.70616113744075804</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C17">
-        <v>0.83090909090909004</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D17">
-        <v>0.65427509293680297</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <v>0.63404490749950204</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>0.70616113744075804</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C18">
-        <v>0.83090909090909004</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D18">
-        <v>0.65427509293680297</v>
+        <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.63404490749950204</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>0.66666666666666596</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C19">
-        <v>0.66666666666666596</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D19">
-        <v>0.628571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
-        <v>0.625</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>0.62822538177988396</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C20">
-        <v>0.63033466533466498</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D20">
-        <v>0.63324175824175799</v>
+        <v>0.5</v>
       </c>
       <c r="E20">
-        <v>0.62680876222542803</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>0.625</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C21">
-        <v>0.80434782608695599</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D21">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E21">
-        <v>0.46928746928746901</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>0.625</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C22">
-        <v>0.80434782608695599</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D22">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="E22">
-        <v>0.46928746928746901</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>0.625</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C23">
-        <v>0.64285714285714202</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D23">
-        <v>0.56428571428571395</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>0.52527472527472496</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>0.625</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C24">
-        <v>0.64285714285714202</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D24">
-        <v>0.56428571428571395</v>
+        <v>0.5</v>
       </c>
       <c r="E24">
-        <v>0.52527472527472496</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>0.625</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C25">
-        <v>0.64285714285714202</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D25">
-        <v>0.56428571428571395</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.52527472527472496</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>0.58333333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C26">
-        <v>0.5625</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D26">
-        <v>0.55714285714285705</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
-        <v>0.55555555555555503</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>0.58333333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C27">
-        <v>0.625</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D27">
-        <v>0.61428571428571399</v>
+        <v>0.5</v>
       </c>
       <c r="E27">
-        <v>0.58041958041957997</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>0.58333333333333304</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C28">
-        <v>0.5625</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D28">
-        <v>0.55714285714285705</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>0.55555555555555503</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>0.57030015797788303</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C29">
-        <v>0.64460970627011704</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D29">
-        <v>0.61052670996908898</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
-        <v>0.55649838464832002</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>0.56766719325961001</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C30">
-        <v>0.62172699307522294</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D30">
-        <v>0.60193090676362004</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
-        <v>0.559278055449</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>0.54166666666666596</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C31">
-        <v>0.282608695652173</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D31">
-        <v>0.46428571428571402</v>
+        <v>0.5</v>
       </c>
       <c r="E31">
-        <v>0.35135135135135098</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>0.54166666666666596</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C32">
-        <v>0.282608695652173</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D32">
-        <v>0.46428571428571402</v>
+        <v>0.5</v>
       </c>
       <c r="E32">
-        <v>0.35135135135135098</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>0.54166666666666596</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C33">
-        <v>0.59243697478991597</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D33">
-        <v>0.57857142857142796</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>0.53439153439153397</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>0.511848341232227</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C34">
-        <v>0.555753791257805</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D34">
-        <v>0.54595775971240601</v>
+        <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.50131429664095795</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>0.45833333333333298</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C35">
-        <v>0.465034965034965</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D35">
-        <v>0.46428571428571402</v>
+        <v>0.5</v>
       </c>
       <c r="E35">
-        <v>0.45739130434782599</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>0.45833333333333298</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C36">
-        <v>0.465034965034965</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D36">
-        <v>0.46428571428571402</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
-        <v>0.45739130434782599</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>0.43127962085308003</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="C37">
-        <v>0.46429981898963302</v>
+        <v>0.79166666699999999</v>
       </c>
       <c r="D37">
-        <v>0.47784325340087402</v>
+        <v>0.5</v>
       </c>
       <c r="E37">
-        <v>0.39696417986281601</v>
+        <v>0.368421053</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.41666666666666602</v>
+        <v>0.58188520300000002</v>
       </c>
       <c r="C38">
-        <v>0.45</v>
+        <v>0.78950159099999995</v>
       </c>
       <c r="D38">
-        <v>0.47142857142857097</v>
+        <v>0.50805452299999998</v>
       </c>
       <c r="E38">
-        <v>0.37777777777777699</v>
+        <v>0.38254271200000001</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.41666666666666602</v>
+        <v>0.58188520300000002</v>
       </c>
       <c r="C39">
-        <v>0.45</v>
+        <v>0.78950159099999995</v>
       </c>
       <c r="D39">
-        <v>0.47142857142857097</v>
+        <v>0.50805452299999998</v>
       </c>
       <c r="E39">
-        <v>0.37777777777777699</v>
+        <v>0.38254271200000001</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.41666666666666602</v>
+        <v>0.57925223800000003</v>
       </c>
       <c r="C40">
-        <v>0.42857142857142799</v>
+        <v>0.65005316300000004</v>
       </c>
       <c r="D40">
-        <v>0.42857142857142799</v>
+        <v>0.505765146</v>
       </c>
       <c r="E40">
-        <v>0.41666666666666602</v>
+        <v>0.381381525</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>0.375</v>
+        <v>0.45971563999999998</v>
       </c>
       <c r="C41">
-        <v>0.384210526315789</v>
+        <v>0.50372085499999997</v>
       </c>
       <c r="D41">
-        <v>0.42142857142857099</v>
+        <v>0.50256852799999996</v>
       </c>
       <c r="E41">
-        <v>0.34664246823956402</v>
+        <v>0.43476240199999999</v>
       </c>
     </row>
   </sheetData>
